--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2062700.172086449</v>
+        <v>-2065181.091911908</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>49.92543549505433</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335564</v>
@@ -1379,7 +1379,7 @@
         <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663269</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579944</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104931</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>52.58162707712597</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115013</v>
@@ -1534,7 +1534,7 @@
         <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
-        <v>104.7623143283147</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358047</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271158</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292081</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>158.6024053529694</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019106</v>
@@ -1610,10 +1610,10 @@
         <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>169.1749475311617</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>379.9558991545849</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579947</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104934</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913425</v>
+        <v>24.38297824917363</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689271</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247634</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.3206442546644</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358047</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292083</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1822,7 +1822,7 @@
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
@@ -1831,7 +1831,7 @@
         <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>0.7670032424144153</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>183.4961803409482</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245672</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>176.8098167150699</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290871</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249323</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085005</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721212</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533091</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H19" t="n">
-        <v>133.259425903566</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411899</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432822</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>208.0533602654128</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245672</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.022686933901</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>9.36293595613623</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>260.0782955518941</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247634</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290871</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249323</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085005</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721212</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5302192482735</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860166</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411899</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432822</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998937</v>
+        <v>274.7162491948565</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245672</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3363911711824</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290871</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249323</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085005</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721212</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533091</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860166</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411899</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432822</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206859</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020903</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3427,16 +3427,16 @@
         <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>101.890258612559</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
         <v>47.07029468621576</v>
@@ -3475,16 +3475,16 @@
         <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>239.7977839309379</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609321</v>
@@ -3673,7 +3673,7 @@
         <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>47.07029468621576</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.20693826439368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
@@ -3718,16 +3718,16 @@
         <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>231.0452163728798</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3901,16 +3901,16 @@
         <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
         <v>47.07029468621576</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>230.7340562419018</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>231.0452163728801</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609321</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G46" t="n">
-        <v>110.548026295317</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>50.95950582245106</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2154.822967855899</v>
+        <v>1464.883581967807</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.052518175211</v>
+        <v>1414.453849144519</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>1083.380217797493</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>724.7840324589721</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597797</v>
+        <v>724.7840324589721</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329909</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
         <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573495</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
         <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479258</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="X11" t="n">
-        <v>2154.822967855899</v>
+        <v>2187.238619488292</v>
       </c>
       <c r="Y11" t="n">
-        <v>2154.822967855899</v>
+        <v>1824.291354772205</v>
       </c>
     </row>
     <row r="12">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>767.3435833022033</v>
+        <v>782.2440901013226</v>
       </c>
       <c r="C13" t="n">
-        <v>625.5994676340202</v>
+        <v>640.4999744331394</v>
       </c>
       <c r="D13" t="n">
-        <v>502.6748954814083</v>
+        <v>517.5754022805274</v>
       </c>
       <c r="E13" t="n">
-        <v>396.8543759578582</v>
+        <v>396.8543759578581</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196716</v>
+        <v>277.1564957196715</v>
       </c>
       <c r="G13" t="n">
         <v>136.6457263541143</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5227,22 +5227,22 @@
         <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.369902162336</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.459102547703</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="V13" t="n">
-        <v>1423.96668160154</v>
+        <v>1491.302933045423</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.741578824303</v>
+        <v>1331.098483193939</v>
       </c>
       <c r="X13" t="n">
-        <v>960.9440951860097</v>
+        <v>1130.300999555645</v>
       </c>
       <c r="Y13" t="n">
-        <v>767.3435833022033</v>
+        <v>936.7004876718386</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1365.645403423854</v>
+        <v>1869.626603223583</v>
       </c>
       <c r="C14" t="n">
-        <v>1023.874953743166</v>
+        <v>1527.856153542894</v>
       </c>
       <c r="D14" t="n">
-        <v>852.9911683581545</v>
+        <v>1196.782522195868</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9911683581545</v>
+        <v>838.1863368573471</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1973308282707</v>
+        <v>454.3924993274632</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299093</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299093</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039933</v>
+        <v>3146.820141253116</v>
       </c>
       <c r="U14" t="n">
-        <v>3063.721540039933</v>
+        <v>2920.481731786676</v>
       </c>
       <c r="V14" t="n">
-        <v>2759.850719956086</v>
+        <v>2616.61091170283</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.274131945696</v>
+        <v>2616.61091170283</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.00044094434</v>
+        <v>2591.981640744068</v>
       </c>
       <c r="Y14" t="n">
-        <v>1725.053176228252</v>
+        <v>2229.034376027981</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>515.8794954802767</v>
+        <v>901.2692096237411</v>
       </c>
       <c r="C16" t="n">
-        <v>515.8794954802767</v>
+        <v>759.5250939555578</v>
       </c>
       <c r="D16" t="n">
-        <v>515.8794954802767</v>
+        <v>636.6005218029458</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802767</v>
+        <v>515.8794954802764</v>
       </c>
       <c r="F16" t="n">
         <v>396.1816152420901</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765327</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H16" t="n">
         <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705057</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535531</v>
+        <v>1257.297841582465</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152592</v>
+        <v>1056.500357944171</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314528</v>
+        <v>1055.725607194257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1817.728115595284</v>
+        <v>1632.378438483216</v>
       </c>
       <c r="C17" t="n">
-        <v>1523.407298862669</v>
+        <v>1338.057621750601</v>
       </c>
       <c r="D17" t="n">
-        <v>1239.783300463716</v>
+        <v>1054.433623351648</v>
       </c>
       <c r="E17" t="n">
-        <v>928.6367480732691</v>
+        <v>743.2870709612007</v>
       </c>
       <c r="F17" t="n">
-        <v>592.2925434914587</v>
+        <v>406.94286637939</v>
       </c>
       <c r="G17" t="n">
-        <v>251.8617935442523</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218339</v>
@@ -5513,13 +5513,13 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
@@ -5528,37 +5528,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3194.269774201189</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417714</v>
+        <v>3015.380997682822</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.31084228194</v>
+        <v>2836.785223223155</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2558.658268160838</v>
       </c>
       <c r="X17" t="n">
-        <v>2445.183887219624</v>
+        <v>2259.834210107555</v>
       </c>
       <c r="Y17" t="n">
-        <v>2129.686255451609</v>
+        <v>1944.336578339541</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218339</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235554</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034455</v>
+        <v>474.8272962671187</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989069</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243109</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341976</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>223.8015741167137</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604096</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218339</v>
@@ -5698,25 +5698,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817309</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459979</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.696340267698</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.375523535083</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446367</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628256</v>
+        <v>629.8847665628264</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344061</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.62080593608</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417713</v>
+        <v>3316.148310542365</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.31084228194</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219623</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.35982916634</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y20" t="n">
-        <v>1883.654480124022</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5853,28 +5853,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235554</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034455</v>
+        <v>474.8272962671187</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989069</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243109</v>
+        <v>326.0809636879838</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8627105341976</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.771579980386</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604094</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817309</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459979</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349349</v>
+        <v>973.0946095349357</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531251</v>
       </c>
       <c r="G23" t="n">
-        <v>296.319655005918</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248234</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248234</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815077</v>
+        <v>262.2568857815079</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713541</v>
+        <v>916.9802179168074</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1368.014431165216</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516336</v>
+        <v>1901.546335837141</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575118</v>
+        <v>2448.325152895923</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454455</v>
+        <v>2951.29762377526</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811633</v>
+        <v>3361.584312811636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567315</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124117</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714071</v>
+        <v>948.4094928714076</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902801</v>
+        <v>773.9564635902806</v>
       </c>
       <c r="D24" t="n">
-        <v>625.022053929029</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235734</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504585</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094441</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248234</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130995</v>
+        <v>167.0550243130999</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934466</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061118</v>
+        <v>772.0173836061125</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,22 +6084,22 @@
         <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821906</v>
+        <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656429</v>
+        <v>1324.38512865643</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891475</v>
+        <v>1116.624829891476</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775268</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574169</v>
+        <v>481.6929346574177</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528783</v>
+        <v>406.2179954528789</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782822</v>
+        <v>332.9466020782828</v>
       </c>
       <c r="F25" t="n">
-        <v>260.698354788169</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.637218370685</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633991</v>
+        <v>96.0617317963401</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248234</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342414</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259239</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720299</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362969</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,52 +6212,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>842.4067862271454</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198915</v>
+        <v>1706.9256018805</v>
       </c>
       <c r="M26" t="n">
-        <v>2095.32492147337</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N26" t="n">
-        <v>2642.103738532152</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.076209411489</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960326</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
@@ -6467,46 +6467,46 @@
         <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1635.769886219269</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2169.301790891193</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2716.080607949975</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3219.053078829312</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697994</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899658</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257034</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415467</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.790514964339</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
@@ -6631,13 +6631,13 @@
         <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519658</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>393.2994530991713</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>727.1188267890177</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198915</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1711.684944709351</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2258.463761768133</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6789,13 +6789,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960309</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6871,37 +6871,37 @@
         <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495727</v>
@@ -6953,7 +6953,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052367</v>
@@ -6971,7 +6971,7 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049856</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7032,7 +7032,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.7479478441292</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>679.4831994900657</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>576.5637463460666</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>428.6506527636735</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404821</v>
@@ -7123,22 +7123,22 @@
         <v>1744.44964124669</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>978.8956707359729</v>
       </c>
       <c r="W37" t="n">
-        <v>1084.164238994386</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>954.846122670212</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>832.7249781005254</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7172,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296686</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7269,7 +7269,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.9308303909355</v>
+        <v>599.602264964779</v>
       </c>
       <c r="C40" t="n">
-        <v>430.666082036872</v>
+        <v>529.3375166107155</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983798</v>
+        <v>477.8923117722232</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1884.661277114357</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.646827515027</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1668.551646658397</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1478.120214357883</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.10716072584</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.689990688879</v>
+        <v>934.0185561150357</v>
       </c>
       <c r="X40" t="n">
         <v>804.7004397908619</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.9078606473317</v>
+        <v>682.5792952211752</v>
       </c>
     </row>
     <row r="41">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>796.9451341124659</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>726.6803857584024</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>576.5637463460666</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>428.6506527636735</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1478.120214357883</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.10716072584</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.361425262723</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.043308938549</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.9221643688621</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307322</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7652,10 +7652,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7664,7 +7664,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7676,7 +7676,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7725,13 +7725,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389142</v>
+        <v>651.0765132702854</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848507</v>
+        <v>580.8117649162219</v>
       </c>
       <c r="D46" t="n">
-        <v>520.5255827463584</v>
+        <v>529.3665600777296</v>
       </c>
       <c r="E46" t="n">
-        <v>471.2839237378088</v>
+        <v>480.1249010691798</v>
       </c>
       <c r="F46" t="n">
-        <v>324.3939762398984</v>
+        <v>431.9063881451128</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>264.2035515198318</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>117.9863647376895</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891709</v>
+        <v>985.4928044205425</v>
       </c>
       <c r="X46" t="n">
-        <v>847.333710764997</v>
+        <v>856.1746880963685</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953104</v>
+        <v>734.0535435266818</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430629</v>
+        <v>157.2353108430626</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729004</v>
+        <v>184.4039433728999</v>
       </c>
       <c r="L8" t="n">
-        <v>191.49489093896</v>
+        <v>191.4948909389594</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333063</v>
+        <v>181.0856325333056</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830236</v>
+        <v>179.3553748830229</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383986</v>
+        <v>182.8301554383979</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586581</v>
+        <v>190.8908035586576</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266121</v>
+        <v>192.0103836266117</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875971</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372531</v>
+        <v>113.6031223372527</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672271</v>
+        <v>105.9629718672266</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253589</v>
+        <v>104.1013981253584</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677618</v>
+        <v>92.30246558677564</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359732</v>
+        <v>106.8829608359727</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798321</v>
+        <v>105.3113487798317</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615453</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564656</v>
+        <v>116.1755252564653</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085223</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140776</v>
+        <v>108.4284123140773</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530923</v>
+        <v>120.669460053092</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662703</v>
+        <v>122.5080856662701</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.104893954106956e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.104893954106956e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784333</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.66901280727029</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>240.971075435944</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>94.37250464902013</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>137.5908801368508</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5185911550068</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>306.6874953089253</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>288.4273096888267</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2293270142166</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>14.75150173112798</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>101.0004463964951</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>158.5879475023947</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>318.4279758421689</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.59118934014639</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115013</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310858</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>190.8975035225539</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>37.21630084065312</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>77.04715854934601</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149638</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>167.7369527970467</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.26435989844038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1178852.936783194</v>
+        <v>1178852.936783195</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1282838.249329693</v>
+        <v>1282838.249329692</v>
       </c>
     </row>
     <row r="9">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>122891.4508075558</v>
+      </c>
+      <c r="C2" t="n">
         <v>122891.4508075557</v>
-      </c>
-      <c r="C2" t="n">
-        <v>122891.4508075558</v>
       </c>
       <c r="D2" t="n">
         <v>122894.800470892</v>
       </c>
       <c r="E2" t="n">
-        <v>109431.0001357464</v>
+        <v>109431.0001357463</v>
       </c>
       <c r="F2" t="n">
-        <v>109431.0001357463</v>
+        <v>109431.0001357462</v>
       </c>
       <c r="G2" t="n">
-        <v>119179.6231869804</v>
+        <v>119179.6231869805</v>
       </c>
       <c r="H2" t="n">
-        <v>119179.6231869804</v>
+        <v>119179.6231869805</v>
       </c>
       <c r="I2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="J2" t="n">
-        <v>123156.2654796423</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796423</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796426</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755234</v>
+        <v>59764.55367552424</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163631</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.109294874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.46782983381</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179704</v>
+        <v>25409.43302179692</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487392</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,34 +26421,34 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475037</v>
+        <v>426120.6833475033</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863756</v>
+        <v>39414.21797863754</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863755</v>
+        <v>39414.21797863753</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007977</v>
+        <v>76442.37834007968</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007977</v>
+        <v>76442.37834007968</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.3356060285</v>
+        <v>89331.33560602847</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936343</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.5572993634</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="N4" t="n">
         <v>91573.95495316945</v>
@@ -26457,7 +26457,7 @@
         <v>91573.95495316945</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316942</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186638</v>
+        <v>35148.9054318664</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.4903648264</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521486</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184209</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357760.7694648371</v>
+        <v>-357765.1830427052</v>
       </c>
       <c r="C6" t="n">
-        <v>-357760.769464837</v>
+        <v>-357765.1830427052</v>
       </c>
       <c r="D6" t="n">
-        <v>-398139.3419840014</v>
+        <v>-398143.6997341478</v>
       </c>
       <c r="E6" t="n">
-        <v>-1095791.680371349</v>
+        <v>-1096020.434793747</v>
       </c>
       <c r="F6" t="n">
-        <v>-6552.708207717471</v>
+        <v>-6781.462630116018</v>
       </c>
       <c r="G6" t="n">
-        <v>-75361.5075731883</v>
+        <v>-75427.78494473246</v>
       </c>
       <c r="H6" t="n">
-        <v>-37781.39827831421</v>
+        <v>-37847.67564985847</v>
       </c>
       <c r="I6" t="n">
-        <v>-74733.06625806181</v>
+        <v>-74733.06625806197</v>
       </c>
       <c r="J6" t="n">
-        <v>-78540.6665163242</v>
+        <v>-78540.66651632401</v>
       </c>
       <c r="K6" t="n">
-        <v>-53131.23349452706</v>
+        <v>-53131.23349452717</v>
       </c>
       <c r="L6" t="n">
-        <v>-90711.34278940126</v>
+        <v>-90711.34278940101</v>
       </c>
       <c r="M6" t="n">
         <v>-253104.3867725009</v>
       </c>
       <c r="N6" t="n">
-        <v>-50936.28677977671</v>
+        <v>-50936.2867797767</v>
       </c>
       <c r="O6" t="n">
-        <v>-50936.28677977667</v>
+        <v>-50936.2867797767</v>
       </c>
       <c r="P6" t="n">
-        <v>-50936.28677977677</v>
+        <v>-50936.28677977665</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810502</v>
@@ -26725,7 +26725,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790713</v>
+        <v>69.78465283790811</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,25 +26799,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810293</v>
+        <v>917.2219352810301</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022924</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859239</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951253</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790713</v>
+        <v>69.78465283790811</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873773</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758496</v>
+        <v>97.11452592758451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959704</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104724</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.246564378017</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672102</v>
+        <v>84.22861846672095</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987507</v>
+        <v>90.83829126987494</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519075</v>
+        <v>84.46220888519062</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990182</v>
+        <v>7.649035050989976</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317041</v>
+        <v>75.62456067317027</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437877</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712651</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H19" t="n">
-        <v>11.49558901075483</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571912</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>11.49558901075477</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571912</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.49558901075488</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571912</v>
+        <v>11.49558901075599</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571912</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859378</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859212</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859398</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="35">
@@ -30147,16 +30147,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>46.72521440565333</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
         <v>97.68472022810502</v>
@@ -30195,16 +30195,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>46.72521440565311</v>
       </c>
       <c r="X37" t="n">
         <v>97.68472022810502</v>
@@ -30393,7 +30393,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>97.68472022810502</v>
@@ -30426,10 +30426,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.72521440565367</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>97.68472022810502</v>
@@ -30438,16 +30438,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>55.47778196371124</v>
+      </c>
+      <c r="X40" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30621,16 +30621,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
         <v>97.68472022810502</v>
@@ -30666,19 +30666,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>55.47778196371107</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>55.4777819637109</v>
       </c>
       <c r="X43" t="n">
         <v>97.68472022810502</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G46" t="n">
-        <v>55.47778196371119</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>45.39291458738706</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.280541317941335</v>
+        <v>0.2805413179413389</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366698</v>
+        <v>2.873093772366738</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993333</v>
+        <v>10.81556915993348</v>
       </c>
       <c r="J8" t="n">
-        <v>23.8105936836234</v>
+        <v>23.81059368362374</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208012</v>
+        <v>35.68590767208062</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102726</v>
+        <v>44.27152403102788</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396647</v>
+        <v>49.26060069396716</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356729</v>
+        <v>50.057688713568</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328814</v>
+        <v>47.2680559832888</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661143</v>
+        <v>40.342192196612</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783736</v>
+        <v>30.29530624783779</v>
       </c>
       <c r="R8" t="n">
-        <v>17.6225535631324</v>
+        <v>17.62255356313265</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588178</v>
+        <v>6.392835282588267</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288195</v>
+        <v>1.228069619288212</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530679</v>
+        <v>0.02244330543530711</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796493</v>
+        <v>0.1501028381796514</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840297</v>
+        <v>1.449677410840318</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694066</v>
+        <v>5.168014384694139</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906941</v>
+        <v>14.18142647906961</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710591</v>
+        <v>24.23831663710626</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264711</v>
+        <v>32.59140791264756</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665938</v>
+        <v>38.03263579665992</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655713</v>
+        <v>39.03924649655767</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847121</v>
+        <v>35.71328360847171</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449812</v>
+        <v>28.66305863449853</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447594</v>
+        <v>19.16049562447621</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768054</v>
+        <v>9.319542882768186</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608835</v>
+        <v>2.788094384608874</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890248</v>
+        <v>0.6050197731890333</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345353</v>
+        <v>0.009875186722345492</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248685</v>
+        <v>0.1258411772486867</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811036</v>
+        <v>1.118842466811052</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078637</v>
+        <v>3.78438740307869</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482027</v>
+        <v>8.896971231482153</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489267</v>
+        <v>14.62045677489288</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477268</v>
+        <v>18.70915102477294</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390825</v>
+        <v>19.72617653908278</v>
       </c>
       <c r="N10" t="n">
-        <v>19.2571321511556</v>
+        <v>19.25713215115587</v>
       </c>
       <c r="O10" t="n">
-        <v>17.7870783987505</v>
+        <v>17.78707839875075</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287731</v>
+        <v>15.21991838287753</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852398</v>
+        <v>10.53748257852413</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338178</v>
+        <v>5.658276933381859</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1930685162339</v>
+        <v>2.193068516233931</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062563</v>
+        <v>0.5376850300625705</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564643</v>
+        <v>0.006864064213564739</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33038,10 +33038,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33752,10 +33752,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33989,10 +33989,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34217,10 +34217,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573246</v>
@@ -35586,7 +35586,7 @@
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086598</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>414.4309990266422</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>578.1623619913444</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>633.2936204792467</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36613,10 +36613,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165998</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -36847,13 +36847,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>536.3528663562224</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597773</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>315.3055921237194</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>858.9893307218366</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165831</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412337</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37637,10 +37637,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
